--- a/Tables/Stats_results.xlsx
+++ b/Tables/Stats_results.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/collinoconnor/Desktop/Rprojects/Ap_variant_landscape/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263D38D7-0767-A040-A62A-A3691815744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4797FCD0-F1AF-7D41-8A46-F80651679141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1740" yWindow="500" windowWidth="19840" windowHeight="16420" xr2:uid="{BFA200B3-6542-1F49-A0D4-E7B044E6EA83}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20020" xr2:uid="{BFA200B3-6542-1F49-A0D4-E7B044E6EA83}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
   <si>
     <t>P-value</t>
   </si>
@@ -81,6 +82,12 @@
   </si>
   <si>
     <t>IRR</t>
+  </si>
+  <si>
+    <t>Aspatial</t>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
   </si>
 </sst>
 </file>
@@ -173,14 +180,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,6 +216,66 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31E89AD-B762-8B42-AAD2-BABD975B33E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8997950" y="3054350"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -574,11 +651,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4B75F8-6B24-0143-9F4B-0BB0022630F3}">
+  <dimension ref="A3:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1.3355999999999999</v>
+      </c>
+      <c r="G9" s="8">
+        <f>EXP(F9)</f>
+        <v>3.8022766281232117</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1.17</v>
+      </c>
+      <c r="N9" s="8">
+        <f>EXP(M9)</f>
+        <v>3.2219926385284996</v>
+      </c>
+      <c r="O9" s="10">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.4657</v>
+      </c>
+      <c r="G11" s="8">
+        <f>EXP(F11)</f>
+        <v>4.3305735810645123</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1.8749</v>
+      </c>
+      <c r="N11" s="8">
+        <f>EXP(M11)</f>
+        <v>6.5201670710210884</v>
+      </c>
+      <c r="O11" s="10">
+        <v>2.9E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8">
+        <v>-1.2084999999999999</v>
+      </c>
+      <c r="G14" s="8">
+        <f>EXP(F14)</f>
+        <v>0.2986449109887705</v>
+      </c>
+      <c r="H14" s="10">
+        <v>3.6099999999999999E-4</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="8">
+        <v>-0.87680000000000002</v>
+      </c>
+      <c r="N14" s="8">
+        <f>EXP(M14)</f>
+        <v>0.41611234295455135</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8">
+        <v>-1.0922000000000001</v>
+      </c>
+      <c r="G16" s="8">
+        <f>EXP(F16)</f>
+        <v>0.3354776304681491</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.18770000000000001</v>
+      </c>
+      <c r="N16" s="8">
+        <f>EXP(M16)</f>
+        <v>1.2064715195970783</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A527E8D2-F450-3E4F-B428-F3C04BB82089}">
   <dimension ref="A2:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,6 +1011,7 @@
     <col min="4" max="4" width="8.83203125" customWidth="1"/>
     <col min="6" max="7" width="9.1640625" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -678,7 +1103,7 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
@@ -686,7 +1111,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="1"/>
@@ -697,121 +1122,121 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="8">
         <v>0.45199499999999998</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="8">
         <v>1.5714440999999999</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="9">
         <v>5.4597962999999999E-2</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="6"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="8">
         <v>0.69593859999999996</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="8">
         <v>2.0055906000000001</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="10">
         <v>1.9313474000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="5"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>0.73630309999999999</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <v>2.0882014</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="10">
         <v>2.5940009999999999E-3</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="8">
         <v>1.2292031000000001</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="8">
         <v>3.4185044000000002</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="10">
         <v>4.7635209999999997E-3</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="6" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="J11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="10"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -821,13 +1246,13 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="8">
         <v>-1.0223255</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="8">
         <v>0.3597573</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="10">
         <v>2.8824730999999999E-2</v>
       </c>
       <c r="J13" s="1"/>
@@ -835,13 +1260,13 @@
       <c r="L13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="8">
         <v>-0.75912579999999996</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="8">
         <v>0.46807554000000001</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="9">
         <v>0.16349808499999999</v>
       </c>
     </row>
@@ -852,17 +1277,17 @@
         <v>4</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="5"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
@@ -871,13 +1296,13 @@
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="8">
         <v>-0.89790009999999998</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="8">
         <v>0.40742430000000002</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="10">
         <v>4.2915254E-2</v>
       </c>
       <c r="J15" s="1"/>
@@ -885,13 +1310,13 @@
       <c r="L15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="8">
         <v>0.25247049999999999</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="8">
         <v>1.2872015000000001</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="9">
         <v>0.71289417200000005</v>
       </c>
     </row>
@@ -900,14 +1325,16 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="H16" s="8"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="7"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="8"/>
-      <c r="T16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="T16" s="6"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
@@ -917,7 +1344,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="5"/>
       <c r="R17" s="4"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
@@ -926,13 +1353,13 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="5"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="6"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
@@ -940,13 +1367,13 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="5"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="6"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
@@ -956,7 +1383,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="6"/>
+      <c r="R20" s="5"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
@@ -964,15 +1391,15 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Stats_results.xlsx
+++ b/Tables/Stats_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/collinoconnor/Desktop/Rprojects/Ap_variant_landscape/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4797FCD0-F1AF-7D41-8A46-F80651679141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ADE061-C545-C14F-8103-8C4FE2974F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20020" xr2:uid="{BFA200B3-6542-1F49-A0D4-E7B044E6EA83}"/>
+    <workbookView xWindow="600" yWindow="520" windowWidth="28800" windowHeight="16420" xr2:uid="{BFA200B3-6542-1F49-A0D4-E7B044E6EA83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -652,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4B75F8-6B24-0143-9F4B-0BB0022630F3}">
-  <dimension ref="A3:O17"/>
+  <dimension ref="A3:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -990,6 +990,69 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="7"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f>H28/50</f>
+        <v>0.02</v>
+      </c>
+      <c r="J28">
+        <f>G28*I28</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>60</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <f>H29/50</f>
+        <v>0.2</v>
+      </c>
+      <c r="J29">
+        <f>I29*G29</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30">
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <f>H30/50</f>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <f>I30*G30</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <f>H31/50</f>
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
